--- a/data/Accounts.xlsx
+++ b/data/Accounts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pravi\eclipse-workspace\SalesForce\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32BE915-6985-4448-B6B6-3272AE99D998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0B5608-6FCE-405B-AAA5-BAE74F094A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateAccounts" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>FirstName</t>
   </si>
@@ -35,16 +35,10 @@
     <t>9125784613</t>
   </si>
   <si>
-    <t>9125784693</t>
-  </si>
-  <si>
     <t>PhoneNumber</t>
   </si>
   <si>
-    <t>TestProfile99</t>
-  </si>
-  <si>
-    <t>TestProfile66</t>
+    <t>TestProfile30</t>
   </si>
 </sst>
 </file>
@@ -386,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -404,12 +398,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -419,10 +408,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3B5E37-9E4F-4D8C-B42C-BD22E35647DD}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,23 +425,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -462,10 +443,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB230F9-10E0-4AC5-8023-D9AFE7ACAF50}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,12 +461,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/Accounts.xlsx
+++ b/data/Accounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pravi\eclipse-workspace\SalesForce\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\selenium-workspace\SalesForce\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0B5608-6FCE-405B-AAA5-BAE74F094A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD18DEF5-3C67-4384-80DA-29CA008E396D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateAccounts" sheetId="1" r:id="rId1"/>
@@ -27,18 +27,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>FirstName</t>
-  </si>
-  <si>
-    <t>9125784613</t>
   </si>
   <si>
     <t>PhoneNumber</t>
   </si>
   <si>
     <t>TestProfile30</t>
+  </si>
+  <si>
+    <t>JenkinsRun</t>
+  </si>
+  <si>
+    <t>9125784616</t>
   </si>
 </sst>
 </file>
@@ -382,8 +385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3B5E37-9E4F-4D8C-B42C-BD22E35647DD}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,7 +428,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -433,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -461,7 +464,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
